--- a/biology/Zoologie/Alfred_Edmund_Brehm/Alfred_Edmund_Brehm.xlsx
+++ b/biology/Zoologie/Alfred_Edmund_Brehm/Alfred_Edmund_Brehm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Edmund Brehm est un zoologue et écrivain allemand né le 2 février 1829 à Unterrenthendorf (aujourd’hui Renthendorf, près de Neustadt an der Orla), et décédé le 11 novembre 1884 (à 55 ans) à Renthendorf. À travers son livre Brehms Tierleben (La Vie animale selon Brehm), son nom devient synonyme de vulgarisation scientifique de la littérature zoologique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Brehm (surnommé Chalihl Effendi), fils du pasteur Christian Ludwig Brehm (1787-1864) et de sa seconde femme Bertha, grandit dans le village d’Unterrenthendorf, en Thuringe. Son père s’est fait connaître des experts en tant qu’ornithologue grâce à ses publications et à une vaste collection d’oiseaux empaillés. Il accumule dans sa maison plus de 9 000 spécimens, donnant un aperçu du monde des oiseaux en Europe. Les recherches de son père suscitent très tôt l’intérêt d’Alfred pour la zoologie, mais ce dernier souhaite devenir architecte.
 Au printemps 1844, Alfred Brehm entre en apprentissage chez un maître d’ouvrage à Altenbourg. Il apprend jusqu’en 1846 la maçonnerie et sort diplômé de l’École d'art et d'artisanat d'Altenbourg. Il se rend à Dresde fin 1846 afin d’y étudier l’architecture, mais abandonne ses études après deux semestres, car le baron Johann Wilhelm von Müller (1824-1866), ornithologue alors célèbre, recherche quelqu’un pour l’accompagner dans une expédition en Afrique. Le 31 mai 1847, il part en tant que secrétaire et assistant du baron pour une expédition de cinq ans qui l’emmène en Égypte, au Soudan et sur la péninsule du Sinaï. L’apport scientifique de cette expédition fut si important que Brehm devint, à l’âge de seulement 20 ans, membre de la Leopoldina.
@@ -548,7 +562,9 @@
           <t>Œuvres en allemand</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Reiseskizzen aus Nord-Ost-Afrika oder den unter egyptischer Herrschaft stehenden Ländern, Égypten, Nubien, Sennahr, Rosseeres und Kordofahn, gesammelt auf seinen in den Jahren 1847 bis 1852 unternommenen Reisen (F. Mauke, Iéna, 1855).
 Ergebnisse einer Reise nach Habesch, im Gefolge…  (O. Meissner, Hambourg, 1863).
@@ -582,7 +598,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Collection :  Merveilles de la nature. L'homme et les animaux, J.B. Baillière et fils, Paris 
 Les Mammifères édition française par Z. Gerbe ;
@@ -618,7 +636,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alfred Brehm, un certain regard sur les animaux, docu-fiction allemand en deux parties de 52 min de Kai Christiansen, 2013.</t>
         </is>
